--- a/TestCase/NHOM6_TESTCASE.xlsx
+++ b/TestCase/NHOM6_TESTCASE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoangNghiep\Tai lieu\Nam3\CD_DD\Mobile-Themes-Group-6\TestCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDDD\Mobile-Themes-Group-6\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="213">
   <si>
     <t>#</t>
   </si>
@@ -1612,11 +1612,26 @@
 3. Clear all text has just been inputted
 4. Verify Hint text</t>
   </si>
+  <si>
+    <t>viet thoem test</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>adad</t>
+  </si>
+  <si>
+    <t>ssc</t>
+  </si>
+  <si>
+    <t>xds</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
@@ -1867,7 +1882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1960,6 +1975,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2287,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M230"/>
+  <dimension ref="A1:M234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A227" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I233" sqref="I233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9360,6 +9381,29 @@
       <c r="K230" s="18"/>
       <c r="L230" s="18"/>
       <c r="M230" s="19"/>
+    </row>
+    <row r="231" spans="1:13">
+      <c r="D231" s="33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13">
+      <c r="D232" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="H232" s="34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13">
+      <c r="D233" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13">
+      <c r="H234" s="34" t="s">
+        <v>212</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/TestCase/NHOM6_TESTCASE.xlsx
+++ b/TestCase/NHOM6_TESTCASE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDDD\Mobile-Themes-Group-6\TestCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mobile-Themes-Group-6\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="208">
   <si>
     <t>#</t>
   </si>
@@ -1611,21 +1611,6 @@
 2. Input
 3. Clear all text has just been inputted
 4. Verify Hint text</t>
-  </si>
-  <si>
-    <t>viet thoem test</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>adad</t>
-  </si>
-  <si>
-    <t>ssc</t>
-  </si>
-  <si>
-    <t>xds</t>
   </si>
 </sst>
 </file>
@@ -1958,6 +1943,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1975,12 +1966,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2308,10 +2293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M234"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I233" sqref="I233"/>
+    <sheetView tabSelected="1" topLeftCell="A225" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O165" sqref="O165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2370,38 +2355,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A2" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="A2" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="78.75" customHeight="1">
       <c r="A4" s="6"/>
@@ -3702,21 +3687,21 @@
       <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:13" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="30"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="32"/>
     </row>
     <row r="47" spans="1:13" s="5" customFormat="1" ht="42.75">
       <c r="A47" s="6"/>
@@ -5048,21 +5033,21 @@
       <c r="M89" s="19"/>
     </row>
     <row r="90" spans="1:13" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="32"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="30"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="31"/>
+      <c r="L90" s="31"/>
+      <c r="M90" s="32"/>
     </row>
     <row r="91" spans="1:13" s="5" customFormat="1" ht="42.75">
       <c r="A91" s="6"/>
@@ -7200,21 +7185,21 @@
       <c r="M159" s="19"/>
     </row>
     <row r="160" spans="1:13" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A160" s="28" t="s">
+      <c r="A160" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="B160" s="29"/>
-      <c r="C160" s="29"/>
-      <c r="D160" s="29"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="29"/>
-      <c r="H160" s="29"/>
-      <c r="I160" s="29"/>
-      <c r="J160" s="32"/>
-      <c r="K160" s="29"/>
-      <c r="L160" s="29"/>
-      <c r="M160" s="30"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="31"/>
+      <c r="F160" s="31"/>
+      <c r="G160" s="31"/>
+      <c r="H160" s="31"/>
+      <c r="I160" s="31"/>
+      <c r="J160" s="34"/>
+      <c r="K160" s="31"/>
+      <c r="L160" s="31"/>
+      <c r="M160" s="32"/>
     </row>
     <row r="161" spans="1:13" s="5" customFormat="1" ht="42.75">
       <c r="A161" s="6"/>
@@ -9383,27 +9368,20 @@
       <c r="M230" s="19"/>
     </row>
     <row r="231" spans="1:13">
-      <c r="D231" s="33" t="s">
-        <v>208</v>
-      </c>
+      <c r="D231" s="27"/>
     </row>
     <row r="232" spans="1:13">
-      <c r="D232" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="H232" s="34" t="s">
-        <v>211</v>
-      </c>
+      <c r="D232" s="27"/>
+      <c r="H232" s="28"/>
     </row>
     <row r="233" spans="1:13">
-      <c r="D233" s="33" t="s">
-        <v>210</v>
-      </c>
+      <c r="D233" s="27"/>
     </row>
     <row r="234" spans="1:13">
-      <c r="H234" s="34" t="s">
-        <v>212</v>
-      </c>
+      <c r="H234" s="28"/>
+    </row>
+    <row r="235" spans="1:13">
+      <c r="D235" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/TestCase/NHOM6_TESTCASE.xlsx
+++ b/TestCase/NHOM6_TESTCASE.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="219">
   <si>
     <t>#</t>
   </si>
@@ -1613,19 +1613,38 @@
 4. Verify Hint text</t>
   </si>
   <si>
-    <t>viet thoem test</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>adad</t>
-  </si>
-  <si>
-    <t>ssc</t>
-  </si>
-  <si>
-    <t>xds</t>
+    <t>Trang Cá Nhân</t>
+  </si>
+  <si>
+    <t>click vào biểu tưởng "cá nhân"</t>
+  </si>
+  <si>
+    <t>1. hiện thị trang cá nhân</t>
+  </si>
+  <si>
+    <t>hiện thị màn hình trang cá nhân</t>
+  </si>
+  <si>
+    <t>textBox Thông tin tài khoản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. click </t>
+  </si>
+  <si>
+    <t>chuyển qua màn hình thông tin tài khoản</t>
+  </si>
+  <si>
+    <t>Button thay đổi thông tin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. click
+</t>
+  </si>
+  <si>
+    <t>chuyển qua màn hình thay đổi thông tin tài khoản</t>
+  </si>
+  <si>
+    <t>nhập dữ liệu ""</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1745,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1875,6 +1894,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1882,7 +1943,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1976,18 +2037,1794 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Copy of performance-test (2)" xfId="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="123">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2308,10 +4145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M234"/>
+  <dimension ref="A1:M239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I233" sqref="I233"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I235" sqref="I235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9352,9 +11189,9 @@
       <c r="M229" s="19"/>
     </row>
     <row r="230" spans="1:13" s="5" customFormat="1" ht="71.25">
-      <c r="A230" s="6"/>
-      <c r="B230" s="6"/>
-      <c r="C230" s="7">
+      <c r="A230" s="33"/>
+      <c r="B230" s="33"/>
+      <c r="C230" s="34">
         <v>224</v>
       </c>
       <c r="D230" s="22" t="s">
@@ -9378,35 +11215,278 @@
       <c r="J230" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K230" s="18"/>
-      <c r="L230" s="18"/>
-      <c r="M230" s="19"/>
-    </row>
-    <row r="231" spans="1:13">
-      <c r="D231" s="33" t="s">
+      <c r="K230" s="35"/>
+      <c r="L230" s="37"/>
+      <c r="M230" s="36"/>
+    </row>
+    <row r="231" spans="1:13" ht="71.25" customHeight="1">
+      <c r="A231" s="38" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="232" spans="1:13">
-      <c r="D232" s="33" t="s">
+      <c r="B231" s="39"/>
+      <c r="C231" s="39"/>
+      <c r="D231" s="39"/>
+      <c r="E231" s="39"/>
+      <c r="F231" s="39"/>
+      <c r="G231" s="39"/>
+      <c r="H231" s="39"/>
+      <c r="I231" s="39"/>
+      <c r="J231" s="39"/>
+      <c r="K231" s="39"/>
+      <c r="L231" s="39"/>
+      <c r="M231" s="40"/>
+    </row>
+    <row r="232" spans="1:13" ht="42.75">
+      <c r="A232" s="33"/>
+      <c r="B232" s="33"/>
+      <c r="C232" s="34">
+        <v>224</v>
+      </c>
+      <c r="D232" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="H232" s="34" t="s">
+      <c r="E232" s="23">
+        <v>1</v>
+      </c>
+      <c r="F232" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G232" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H232" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="I232" s="25" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="233" spans="1:13">
-      <c r="D233" s="33" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13">
-      <c r="H234" s="34" t="s">
+      <c r="J232" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K232" s="35"/>
+      <c r="L232" s="37"/>
+      <c r="M232" s="36"/>
+    </row>
+    <row r="233" spans="1:13" ht="42.75">
+      <c r="A233" s="33"/>
+      <c r="B233" s="33"/>
+      <c r="C233" s="34">
+        <v>225</v>
+      </c>
+      <c r="D233" s="22" t="s">
         <v>212</v>
       </c>
+      <c r="E233" s="23">
+        <v>1</v>
+      </c>
+      <c r="F233" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G233" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H233" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="I233" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J233" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K233" s="35"/>
+      <c r="L233" s="37"/>
+      <c r="M233" s="36"/>
+    </row>
+    <row r="234" spans="1:13" ht="42.75">
+      <c r="A234" s="33"/>
+      <c r="B234" s="33"/>
+      <c r="C234" s="34">
+        <v>226</v>
+      </c>
+      <c r="D234" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="E234" s="23">
+        <v>1</v>
+      </c>
+      <c r="F234" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G234" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H234" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="I234" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="J234" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K234" s="35"/>
+      <c r="L234" s="37"/>
+      <c r="M234" s="36"/>
+    </row>
+    <row r="235" spans="1:13" ht="57">
+      <c r="A235" s="33"/>
+      <c r="B235" s="33"/>
+      <c r="C235" s="34">
+        <v>227</v>
+      </c>
+      <c r="D235" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E235" s="23">
+        <v>1</v>
+      </c>
+      <c r="F235" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G235" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H235" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I235" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="J235" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K235" s="35"/>
+      <c r="L235" s="37"/>
+      <c r="M235" s="36"/>
+    </row>
+    <row r="236" spans="1:13" ht="71.25">
+      <c r="A236" s="33"/>
+      <c r="B236" s="33"/>
+      <c r="C236" s="34">
+        <v>224</v>
+      </c>
+      <c r="D236" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E236" s="23">
+        <v>1</v>
+      </c>
+      <c r="F236" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G236" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H236" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I236" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="J236" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K236" s="35"/>
+      <c r="L236" s="37"/>
+      <c r="M236" s="36"/>
+    </row>
+    <row r="237" spans="1:13" ht="71.25">
+      <c r="A237" s="33"/>
+      <c r="B237" s="33"/>
+      <c r="C237" s="34">
+        <v>224</v>
+      </c>
+      <c r="D237" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E237" s="23">
+        <v>1</v>
+      </c>
+      <c r="F237" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G237" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H237" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I237" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="J237" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K237" s="35"/>
+      <c r="L237" s="37"/>
+      <c r="M237" s="36"/>
+    </row>
+    <row r="238" spans="1:13" ht="71.25">
+      <c r="A238" s="33"/>
+      <c r="B238" s="33"/>
+      <c r="C238" s="34">
+        <v>224</v>
+      </c>
+      <c r="D238" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E238" s="23">
+        <v>1</v>
+      </c>
+      <c r="F238" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G238" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H238" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I238" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="J238" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K238" s="35"/>
+      <c r="L238" s="37"/>
+      <c r="M238" s="36"/>
+    </row>
+    <row r="239" spans="1:13" ht="71.25">
+      <c r="A239" s="33"/>
+      <c r="B239" s="33"/>
+      <c r="C239" s="34">
+        <v>224</v>
+      </c>
+      <c r="D239" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E239" s="23">
+        <v>1</v>
+      </c>
+      <c r="F239" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G239" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H239" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I239" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="J239" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K239" s="35"/>
+      <c r="L239" s="37"/>
+      <c r="M239" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A231:M231"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A46:M46"/>
@@ -9414,18 +11494,106 @@
     <mergeCell ref="A160:M160"/>
   </mergeCells>
   <conditionalFormatting sqref="J2 F2 F4:F45 J4:J45 I89 F47:F89 J161:J229 F91:F159 J91:J159 J47:J89 I230:J230 F161:F230">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="61" stopIfTrue="1" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="62" stopIfTrue="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="63" stopIfTrue="1" operator="equal">
+      <formula>"BLOCKED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I239:J239 F239">
+    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"FAILED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"BLOCKED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I232:J232 F232">
+    <cfRule type="cellIs" dxfId="26" priority="25" stopIfTrue="1" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="equal">
+      <formula>"FAILED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="27" stopIfTrue="1" operator="equal">
+      <formula>"BLOCKED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I233:J233 F233">
+    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"FAILED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"BLOCKED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I234:J234 F234">
+    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"FAILED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"BLOCKED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I235:J235 F235">
+    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
+      <formula>"FAILED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"BLOCKED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I236:J236 F236">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"FAILED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"BLOCKED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I237:J237 F237">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"FAILED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"BLOCKED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I238:J238 F238">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"FAILED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
       <formula>"BLOCKED"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J4:J230">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J4:J230 J232:J239">
       <formula1>"HIGH,NORMAL,LOW"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/TestCase/NHOM6_TESTCASE.xlsx
+++ b/TestCase/NHOM6_TESTCASE.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="213">
   <si>
     <t>#</t>
   </si>
@@ -1613,38 +1613,19 @@
 4. Verify Hint text</t>
   </si>
   <si>
-    <t>Trang Cá Nhân</t>
-  </si>
-  <si>
-    <t>click vào biểu tưởng "cá nhân"</t>
-  </si>
-  <si>
-    <t>1. hiện thị trang cá nhân</t>
-  </si>
-  <si>
-    <t>hiện thị màn hình trang cá nhân</t>
-  </si>
-  <si>
-    <t>textBox Thông tin tài khoản</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. click </t>
-  </si>
-  <si>
-    <t>chuyển qua màn hình thông tin tài khoản</t>
-  </si>
-  <si>
-    <t>Button thay đổi thông tin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. click
-</t>
-  </si>
-  <si>
-    <t>chuyển qua màn hình thay đổi thông tin tài khoản</t>
-  </si>
-  <si>
-    <t>nhập dữ liệu ""</t>
+    <t>viet thoem test</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>adad</t>
+  </si>
+  <si>
+    <t>ssc</t>
+  </si>
+  <si>
+    <t>xds</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1726,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1894,48 +1875,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1943,7 +1882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2037,1794 +1976,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Copy of performance-test (2)" xfId="1"/>
   </cellStyles>
-  <dxfs count="123">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -4145,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M239"/>
+  <dimension ref="A1:M234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I235" sqref="I235"/>
+    <sheetView tabSelected="1" topLeftCell="A227" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I233" sqref="I233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11189,9 +9352,9 @@
       <c r="M229" s="19"/>
     </row>
     <row r="230" spans="1:13" s="5" customFormat="1" ht="71.25">
-      <c r="A230" s="33"/>
-      <c r="B230" s="33"/>
-      <c r="C230" s="34">
+      <c r="A230" s="6"/>
+      <c r="B230" s="6"/>
+      <c r="C230" s="7">
         <v>224</v>
       </c>
       <c r="D230" s="22" t="s">
@@ -11215,278 +9378,35 @@
       <c r="J230" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K230" s="35"/>
-      <c r="L230" s="37"/>
-      <c r="M230" s="36"/>
-    </row>
-    <row r="231" spans="1:13" ht="71.25" customHeight="1">
-      <c r="A231" s="38" t="s">
+      <c r="K230" s="18"/>
+      <c r="L230" s="18"/>
+      <c r="M230" s="19"/>
+    </row>
+    <row r="231" spans="1:13">
+      <c r="D231" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="B231" s="39"/>
-      <c r="C231" s="39"/>
-      <c r="D231" s="39"/>
-      <c r="E231" s="39"/>
-      <c r="F231" s="39"/>
-      <c r="G231" s="39"/>
-      <c r="H231" s="39"/>
-      <c r="I231" s="39"/>
-      <c r="J231" s="39"/>
-      <c r="K231" s="39"/>
-      <c r="L231" s="39"/>
-      <c r="M231" s="40"/>
-    </row>
-    <row r="232" spans="1:13" ht="42.75">
-      <c r="A232" s="33"/>
-      <c r="B232" s="33"/>
-      <c r="C232" s="34">
-        <v>224</v>
-      </c>
-      <c r="D232" s="22" t="s">
+    </row>
+    <row r="232" spans="1:13">
+      <c r="D232" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="E232" s="23">
-        <v>1</v>
-      </c>
-      <c r="F232" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G232" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H232" s="24" t="s">
+      <c r="H232" s="34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13">
+      <c r="D233" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="I232" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="J232" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K232" s="35"/>
-      <c r="L232" s="37"/>
-      <c r="M232" s="36"/>
-    </row>
-    <row r="233" spans="1:13" ht="42.75">
-      <c r="A233" s="33"/>
-      <c r="B233" s="33"/>
-      <c r="C233" s="34">
-        <v>225</v>
-      </c>
-      <c r="D233" s="22" t="s">
+    </row>
+    <row r="234" spans="1:13">
+      <c r="H234" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="E233" s="23">
-        <v>1</v>
-      </c>
-      <c r="F233" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G233" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H233" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="I233" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="J233" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K233" s="35"/>
-      <c r="L233" s="37"/>
-      <c r="M233" s="36"/>
-    </row>
-    <row r="234" spans="1:13" ht="42.75">
-      <c r="A234" s="33"/>
-      <c r="B234" s="33"/>
-      <c r="C234" s="34">
-        <v>226</v>
-      </c>
-      <c r="D234" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E234" s="23">
-        <v>1</v>
-      </c>
-      <c r="F234" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G234" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H234" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="I234" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="J234" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K234" s="35"/>
-      <c r="L234" s="37"/>
-      <c r="M234" s="36"/>
-    </row>
-    <row r="235" spans="1:13" ht="57">
-      <c r="A235" s="33"/>
-      <c r="B235" s="33"/>
-      <c r="C235" s="34">
-        <v>227</v>
-      </c>
-      <c r="D235" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="E235" s="23">
-        <v>1</v>
-      </c>
-      <c r="F235" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G235" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H235" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="I235" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="J235" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K235" s="35"/>
-      <c r="L235" s="37"/>
-      <c r="M235" s="36"/>
-    </row>
-    <row r="236" spans="1:13" ht="71.25">
-      <c r="A236" s="33"/>
-      <c r="B236" s="33"/>
-      <c r="C236" s="34">
-        <v>224</v>
-      </c>
-      <c r="D236" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E236" s="23">
-        <v>1</v>
-      </c>
-      <c r="F236" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G236" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H236" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="I236" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="J236" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K236" s="35"/>
-      <c r="L236" s="37"/>
-      <c r="M236" s="36"/>
-    </row>
-    <row r="237" spans="1:13" ht="71.25">
-      <c r="A237" s="33"/>
-      <c r="B237" s="33"/>
-      <c r="C237" s="34">
-        <v>224</v>
-      </c>
-      <c r="D237" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E237" s="23">
-        <v>1</v>
-      </c>
-      <c r="F237" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G237" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H237" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="I237" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="J237" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K237" s="35"/>
-      <c r="L237" s="37"/>
-      <c r="M237" s="36"/>
-    </row>
-    <row r="238" spans="1:13" ht="71.25">
-      <c r="A238" s="33"/>
-      <c r="B238" s="33"/>
-      <c r="C238" s="34">
-        <v>224</v>
-      </c>
-      <c r="D238" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E238" s="23">
-        <v>1</v>
-      </c>
-      <c r="F238" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G238" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H238" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="I238" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="J238" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K238" s="35"/>
-      <c r="L238" s="37"/>
-      <c r="M238" s="36"/>
-    </row>
-    <row r="239" spans="1:13" ht="71.25">
-      <c r="A239" s="33"/>
-      <c r="B239" s="33"/>
-      <c r="C239" s="34">
-        <v>224</v>
-      </c>
-      <c r="D239" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E239" s="23">
-        <v>1</v>
-      </c>
-      <c r="F239" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G239" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H239" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="I239" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="J239" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K239" s="35"/>
-      <c r="L239" s="37"/>
-      <c r="M239" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A231:M231"/>
+  <mergeCells count="5">
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A46:M46"/>
@@ -11494,106 +9414,18 @@
     <mergeCell ref="A160:M160"/>
   </mergeCells>
   <conditionalFormatting sqref="J2 F2 F4:F45 J4:J45 I89 F47:F89 J161:J229 F91:F159 J91:J159 J47:J89 I230:J230 F161:F230">
-    <cfRule type="cellIs" dxfId="62" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="63" stopIfTrue="1" operator="equal">
-      <formula>"BLOCKED"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I239:J239 F239">
-    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"PASSED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"FAILED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"BLOCKED"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I232:J232 F232">
-    <cfRule type="cellIs" dxfId="26" priority="25" stopIfTrue="1" operator="equal">
-      <formula>"PASSED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="equal">
-      <formula>"FAILED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" stopIfTrue="1" operator="equal">
-      <formula>"BLOCKED"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I233:J233 F233">
-    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="equal">
-      <formula>"PASSED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
-      <formula>"FAILED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="equal">
-      <formula>"BLOCKED"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I234:J234 F234">
-    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
-      <formula>"PASSED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
-      <formula>"FAILED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="equal">
-      <formula>"BLOCKED"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I235:J235 F235">
-    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="equal">
-      <formula>"PASSED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
-      <formula>"FAILED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" stopIfTrue="1" operator="equal">
-      <formula>"BLOCKED"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I236:J236 F236">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
-      <formula>"PASSED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
-      <formula>"FAILED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="equal">
-      <formula>"BLOCKED"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I237:J237 F237">
-    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"PASSED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"FAILED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"BLOCKED"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I238:J238 F238">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"PASSED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"FAILED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
       <formula>"BLOCKED"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J4:J230 J232:J239">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J4:J230">
       <formula1>"HIGH,NORMAL,LOW"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/TestCase/NHOM6_TESTCASE.xlsx
+++ b/TestCase/NHOM6_TESTCASE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mobile-Themes-Group-6\TestCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDDD\Mobile-Themes-Group-6\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -214,7 +214,359 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="38"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -538,7 +890,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -618,13 +970,13 @@
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="J2 F2">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="61" stopIfTrue="1" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="62" stopIfTrue="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="63" stopIfTrue="1" operator="equal">
       <formula>"BLOCKED"</formula>
     </cfRule>
   </conditionalFormatting>
